--- a/data/trans_orig/IP07C17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C17-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B296CB4-F581-4D7E-892F-6D72D50C4287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BDC1693-CA4A-4E69-B149-45D59159CDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A77504BA-E9A1-47DE-B556-BFE857789CC3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F513D645-8208-4C3B-9614-E5F59949407A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,28 +76,28 @@
     <t>16,89%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>37,37%</t>
   </si>
   <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>34,97%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,28 +136,28 @@
     <t>31,95%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -166,28 +166,28 @@
     <t>4,47%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -196,28 +196,28 @@
     <t>9,32%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>8,89%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -229,1372 +229,1372 @@
     <t>21,27%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2015 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7F0BE5-8793-4312-BD86-A3565650194E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904A75E3-3723-402D-ABD3-07087977FB11}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2465,7 +2465,7 @@
         <v>151</v>
       </c>
       <c r="N10" s="7">
-        <v>100659</v>
+        <v>100660</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2516,7 +2516,7 @@
         <v>252</v>
       </c>
       <c r="N11" s="7">
-        <v>168680</v>
+        <v>168681</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -2567,7 +2567,7 @@
         <v>158</v>
       </c>
       <c r="N12" s="7">
-        <v>104522</v>
+        <v>104523</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -2642,13 +2642,13 @@
         <v>13080</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2657,28 +2657,28 @@
         <v>3167</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>16246</v>
+        <v>16247</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,7 +2720,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407699</v>
+        <v>407700</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2746,13 +2746,13 @@
         <v>11585</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -2761,13 +2761,13 @@
         <v>15196</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2779,10 +2779,10 @@
         <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2797,13 @@
         <v>21204</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -2812,10 +2812,10 @@
         <v>24544</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>120</v>
@@ -2854,7 +2854,7 @@
         <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -2863,13 +2863,13 @@
         <v>8731</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -2878,13 +2878,13 @@
         <v>17360</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2899,13 @@
         <v>5091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2914,13 +2914,13 @@
         <v>2225</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2929,13 +2929,13 @@
         <v>7316</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2950,13 @@
         <v>1836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2965,13 +2965,13 @@
         <v>3550</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2980,13 +2980,13 @@
         <v>5386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3054,13 @@
         <v>65117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>123</v>
@@ -3069,13 +3069,13 @@
         <v>83310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>221</v>
@@ -3084,13 +3084,13 @@
         <v>148427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3105,13 @@
         <v>115648</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>196</v>
@@ -3120,13 +3120,13 @@
         <v>131027</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>369</v>
@@ -3135,13 +3135,13 @@
         <v>246675</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3156,13 @@
         <v>92755</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>77</v>
@@ -3171,13 +3171,13 @@
         <v>52422</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>218</v>
@@ -3186,13 +3186,13 @@
         <v>145177</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3207,13 @@
         <v>16420</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -3222,13 +3222,13 @@
         <v>13080</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3237,13 +3237,13 @@
         <v>29500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3258,13 @@
         <v>18943</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -3273,13 +3273,13 @@
         <v>10808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -3288,13 +3288,13 @@
         <v>29751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BBE3BF-6E5F-4ADD-BB9A-1EEC34DD627D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13D6083-B117-4989-AADF-3E4F67435237}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3386,7 +3386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3493,13 +3493,13 @@
         <v>21531</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>30</v>
@@ -3508,13 +3508,13 @@
         <v>20559</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3523,13 +3523,13 @@
         <v>42089</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3544,7 @@
         <v>12185</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>206</v>
@@ -3649,10 +3649,10 @@
         <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3661,10 +3661,10 @@
         <v>3707</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>227</v>
@@ -3679,10 +3679,10 @@
         <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,10 +3697,10 @@
         <v>2540</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>232</v>
@@ -3730,10 +3730,10 @@
         <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3801,13 @@
         <v>71359</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -3816,13 +3816,13 @@
         <v>68253</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -3831,13 +3831,13 @@
         <v>139612</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3852,13 @@
         <v>74935</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -3867,13 +3867,13 @@
         <v>82008</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
@@ -3882,13 +3882,13 @@
         <v>156943</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3903,13 @@
         <v>48642</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -3918,13 +3918,13 @@
         <v>36451</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>122</v>
@@ -3933,13 +3933,13 @@
         <v>85093</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3954,13 @@
         <v>15553</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3969,13 +3969,13 @@
         <v>7013</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3984,13 +3984,13 @@
         <v>22566</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4005,13 @@
         <v>12419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4020,13 +4020,13 @@
         <v>5413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4035,13 +4035,13 @@
         <v>17832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4097,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4109,13 +4109,13 @@
         <v>14826</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4124,13 +4124,13 @@
         <v>30036</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -4139,13 +4139,13 @@
         <v>44862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4160,13 @@
         <v>27551</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -4175,13 +4175,13 @@
         <v>14525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -4190,13 +4190,13 @@
         <v>42075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4211,13 @@
         <v>10668</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -4226,13 +4226,13 @@
         <v>12301</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -4241,13 +4241,13 @@
         <v>22969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4262,13 @@
         <v>2435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4280,10 +4280,10 @@
         <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4292,13 +4292,13 @@
         <v>5033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4313,13 @@
         <v>672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4328,13 +4328,13 @@
         <v>715</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4343,13 +4343,13 @@
         <v>1387</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4417,13 @@
         <v>107716</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>170</v>
@@ -4432,13 +4432,13 @@
         <v>118848</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>322</v>
@@ -4447,13 +4447,13 @@
         <v>226564</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4468,13 @@
         <v>114671</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>162</v>
@@ -4483,13 +4483,13 @@
         <v>113549</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="M23" s="7">
         <v>331</v>
@@ -4498,13 +4498,13 @@
         <v>228219</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4519,13 @@
         <v>66032</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>78</v>
@@ -4534,13 +4534,13 @@
         <v>56345</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -4549,13 +4549,13 @@
         <v>122377</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4570,13 @@
         <v>20173</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -4585,13 +4585,13 @@
         <v>13318</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4600,13 +4600,13 @@
         <v>33490</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,10 +4621,10 @@
         <v>15631</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>354</v>
@@ -4636,13 +4636,13 @@
         <v>8879</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -4651,13 +4651,13 @@
         <v>24509</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,7 +4713,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E037226-54A1-4F8A-832D-C105E27D0AAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAA51D2-9BB4-4E37-B827-131B240583C9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,10 +4886,10 @@
         <v>20958</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>367</v>
@@ -4940,10 +4940,10 @@
         <v>374</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,13 +4958,13 @@
         <v>5428</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4976,10 +4976,10 @@
         <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4988,13 +4988,13 @@
         <v>9934</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5009,13 @@
         <v>1426</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5024,13 +5024,13 @@
         <v>549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5039,13 +5039,13 @@
         <v>1976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>389</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5060,13 @@
         <v>1389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5075,13 +5075,13 @@
         <v>2868</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5090,13 +5090,13 @@
         <v>4257</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,13 +5164,13 @@
         <v>67157</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -5179,13 +5179,13 @@
         <v>87958</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -5194,13 +5194,13 @@
         <v>155115</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5245,13 @@
         <v>187995</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5266,13 @@
         <v>54050</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -5281,13 +5281,13 @@
         <v>39349</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>131</v>
@@ -5296,13 +5296,13 @@
         <v>93398</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5317,13 @@
         <v>12959</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5332,13 +5332,13 @@
         <v>14590</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5347,13 +5347,13 @@
         <v>27549</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5368,13 @@
         <v>7149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5383,13 +5383,13 @@
         <v>8511</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -5398,13 +5398,13 @@
         <v>15660</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,7 +5460,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5472,13 +5472,13 @@
         <v>25282</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -5487,10 +5487,10 @@
         <v>26416</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>443</v>
@@ -5538,13 +5538,13 @@
         <v>24428</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -5553,10 +5553,10 @@
         <v>56526</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>454</v>
@@ -5589,7 +5589,7 @@
         <v>15521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>458</v>
@@ -5643,10 +5643,10 @@
         <v>466</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>142</v>
+        <v>467</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5655,10 +5655,10 @@
         <v>7041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>469</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>470</v>
@@ -5694,7 +5694,7 @@
         <v>474</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>475</v>
@@ -5706,13 +5706,13 @@
         <v>3767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5780,13 @@
         <v>104877</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>178</v>
@@ -5795,13 +5795,13 @@
         <v>122894</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>324</v>
@@ -5810,13 +5810,13 @@
         <v>227771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5831,13 @@
         <v>142460</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>183</v>
@@ -5846,13 +5846,13 @@
         <v>132181</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>376</v>
@@ -5861,13 +5861,13 @@
         <v>274641</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5882,13 @@
         <v>71517</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H24" s="7">
         <v>87</v>
@@ -5897,13 +5897,13 @@
         <v>59376</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
@@ -5912,13 +5912,13 @@
         <v>130892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5933,13 @@
         <v>18196</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -5948,13 +5948,13 @@
         <v>18369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5963,13 +5963,13 @@
         <v>36565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5984,13 @@
         <v>10810</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>513</v>
+        <v>277</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -5999,7 +5999,7 @@
         <v>12874</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>514</v>
@@ -6076,7 +6076,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BDC1693-CA4A-4E69-B149-45D59159CDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E77C06-89C9-435C-A4D2-28248FF1C989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F513D645-8208-4C3B-9614-E5F59949407A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BA8E0B75-326B-4B48-A712-3C1E053F42ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="531">
   <si>
     <t>Menores según frecuencia de gustarle ir al colegio en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1528 +73,1564 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>23,52%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de gustarle ir al colegio en 2016 (Tasa respuesta: 45,67%)</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de gustarle ir al colegio en 2016 (Tasa respuesta: 45,67%)</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>4,68%</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904A75E3-3723-402D-ABD3-07087977FB11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994EF192-2342-4255-AC62-01F00DCA4A21}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2124,10 +2160,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>7301</v>
+        <v>13684</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2139,10 +2175,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>13684</v>
+        <v>7301</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2178,7 +2214,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>16155</v>
+        <v>16091</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2193,7 +2229,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>16091</v>
+        <v>16155</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2226,10 +2262,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>13810</v>
+        <v>9484</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2241,10 +2277,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>9484</v>
+        <v>13810</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2277,10 +2313,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1931</v>
+        <v>2663</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2292,10 +2328,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2663</v>
+        <v>1931</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2331,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>4028</v>
+        <v>4091</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2346,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>4091</v>
+        <v>4028</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2379,25 +2415,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2432,10 +2468,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7">
-        <v>46231</v>
+        <v>54429</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2447,10 +2483,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>54429</v>
+        <v>46231</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2465,7 +2501,7 @@
         <v>151</v>
       </c>
       <c r="N10" s="7">
-        <v>100660</v>
+        <v>100659</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2483,49 +2519,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>135</v>
+      </c>
+      <c r="D11" s="7">
+        <v>90392</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="7">
         <v>117</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>78289</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H11" s="7">
-        <v>135</v>
-      </c>
-      <c r="I11" s="7">
-        <v>90392</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>252</v>
       </c>
       <c r="N11" s="7">
-        <v>168681</v>
+        <v>168680</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,49 +2570,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>51</v>
+      </c>
+      <c r="D12" s="7">
+        <v>34206</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7">
         <v>107</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>70316</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="7">
-        <v>51</v>
-      </c>
-      <c r="I12" s="7">
-        <v>34206</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>158</v>
       </c>
       <c r="N12" s="7">
-        <v>104523</v>
+        <v>104522</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,34 +2621,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8192</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="7">
         <v>14</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>9398</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8192</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -2621,13 +2657,13 @@
         <v>17590</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,10 +2672,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>13080</v>
+        <v>3167</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>97</v>
@@ -2651,10 +2687,10 @@
         <v>99</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>3167</v>
+        <v>13080</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -2669,7 +2705,7 @@
         <v>25</v>
       </c>
       <c r="N14" s="7">
-        <v>16247</v>
+        <v>16246</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>103</v>
@@ -2687,25 +2723,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>217314</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2720,7 +2756,7 @@
         <v>613</v>
       </c>
       <c r="N15" s="7">
-        <v>407700</v>
+        <v>407699</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2740,10 +2776,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>11585</v>
+        <v>15196</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -2755,10 +2791,10 @@
         <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>15196</v>
+        <v>11585</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -2791,10 +2827,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>21204</v>
+        <v>24544</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -2806,10 +2842,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I17" s="7">
-        <v>24544</v>
+        <v>21204</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -2842,34 +2878,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>8629</v>
+        <v>8731</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>13</v>
+      </c>
+      <c r="I18" s="7">
+        <v>8629</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8731</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>25</v>
@@ -2878,13 +2914,13 @@
         <v>17360</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,34 +2929,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2225</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="7">
         <v>7</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>5091</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2225</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -2929,13 +2965,13 @@
         <v>7316</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,34 +2980,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3550</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1836</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3550</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2980,13 +3016,13 @@
         <v>5386</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,25 +3031,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>72</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>48345</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3048,34 +3084,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>123</v>
+      </c>
+      <c r="D22" s="7">
+        <v>83310</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="7">
         <v>98</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>65117</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="7">
-        <v>123</v>
-      </c>
-      <c r="I22" s="7">
-        <v>83310</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>221</v>
@@ -3084,13 +3120,13 @@
         <v>148427</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,34 +3135,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>196</v>
+      </c>
+      <c r="D23" s="7">
+        <v>131027</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="7">
         <v>173</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>115648</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="7">
-        <v>196</v>
-      </c>
-      <c r="I23" s="7">
-        <v>131027</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>369</v>
@@ -3135,13 +3171,13 @@
         <v>246675</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,34 +3186,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>77</v>
+      </c>
+      <c r="D24" s="7">
+        <v>52422</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="7">
         <v>141</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>92755</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="7">
-        <v>77</v>
-      </c>
-      <c r="I24" s="7">
-        <v>52422</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>218</v>
@@ -3186,13 +3222,13 @@
         <v>145177</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,34 +3237,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>20</v>
+      </c>
+      <c r="D25" s="7">
+        <v>13080</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="7">
         <v>24</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>16420</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H25" s="7">
-        <v>20</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13080</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3237,13 +3273,13 @@
         <v>29500</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,34 +3288,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7">
+        <v>10808</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="7">
         <v>29</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>18943</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H26" s="7">
-        <v>16</v>
-      </c>
-      <c r="I26" s="7">
-        <v>10808</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -3288,13 +3324,13 @@
         <v>29751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,25 +3339,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>308884</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3350,7 +3386,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +3405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13D6083-B117-4989-AADF-3E4F67435237}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764140DB-F044-4C82-8D73-3F3C2671A023}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3386,7 +3422,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3487,34 +3523,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20559</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>29</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>21531</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="7">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7">
-        <v>20559</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -3523,13 +3559,13 @@
         <v>42089</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,34 +3574,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17016</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="7">
         <v>18</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>12185</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>17016</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3574,13 +3610,13 @@
         <v>29201</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,31 +3628,31 @@
         <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>6722</v>
+        <v>7593</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>7593</v>
+        <v>6722</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3625,13 +3661,13 @@
         <v>14315</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,31 +3676,31 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3707</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>2184</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3707</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>227</v>
@@ -3679,10 +3715,10 @@
         <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,28 +3730,28 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>2540</v>
+        <v>2751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2751</v>
+        <v>2540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>235</v>
@@ -3730,10 +3766,10 @@
         <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>104</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,25 +3778,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -3795,34 +3831,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>98</v>
+      </c>
+      <c r="D10" s="7">
+        <v>68253</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10" s="7">
         <v>102</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>71359</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H10" s="7">
-        <v>98</v>
-      </c>
-      <c r="I10" s="7">
-        <v>68253</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>200</v>
@@ -3831,13 +3867,13 @@
         <v>139612</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,34 +3882,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>118</v>
+      </c>
+      <c r="D11" s="7">
+        <v>82008</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H11" s="7">
         <v>111</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>74935</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="7">
-        <v>118</v>
-      </c>
-      <c r="I11" s="7">
-        <v>82008</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
@@ -3882,13 +3918,13 @@
         <v>156943</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,34 +3933,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>51</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36451</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="7">
         <v>71</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>48642</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H12" s="7">
-        <v>51</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36451</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>122</v>
@@ -3933,13 +3969,13 @@
         <v>85093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,34 +3984,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7013</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="7">
         <v>22</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>15553</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7013</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -3984,13 +4020,13 @@
         <v>22566</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,34 +4035,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5413</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="7">
         <v>19</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>12419</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5413</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4035,13 +4071,13 @@
         <v>17832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,25 +4086,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199139</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>325</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>222908</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199139</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4103,34 +4139,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>30036</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="7">
         <v>21</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>14826</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H16" s="7">
-        <v>42</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30036</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -4139,13 +4175,13 @@
         <v>44862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,34 +4190,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14525</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="7">
         <v>40</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>27551</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H17" s="7">
-        <v>20</v>
-      </c>
-      <c r="I17" s="7">
-        <v>14525</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -4190,13 +4226,13 @@
         <v>42075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,34 +4241,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12301</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="7">
         <v>16</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>10668</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12301</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>33</v>
@@ -4241,13 +4277,13 @@
         <v>22969</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,31 +4295,31 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>2435</v>
+        <v>2598</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2598</v>
+        <v>2435</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -4292,13 +4328,13 @@
         <v>5033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,31 +4346,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>715</v>
+        <v>672</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4343,13 +4379,13 @@
         <v>1387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,25 +4394,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60174</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60174</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4411,34 +4447,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>170</v>
+      </c>
+      <c r="D22" s="7">
+        <v>118848</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22" s="7">
         <v>152</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>107716</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" s="7">
-        <v>170</v>
-      </c>
-      <c r="I22" s="7">
-        <v>118848</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>322</v>
@@ -4447,13 +4483,13 @@
         <v>226564</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,34 +4498,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>162</v>
+      </c>
+      <c r="D23" s="7">
+        <v>113549</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H23" s="7">
         <v>169</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>114671</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H23" s="7">
-        <v>162</v>
-      </c>
-      <c r="I23" s="7">
-        <v>113549</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>331</v>
@@ -4498,13 +4534,13 @@
         <v>228219</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,34 +4549,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>78</v>
+      </c>
+      <c r="D24" s="7">
+        <v>56345</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" s="7">
         <v>97</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>66032</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H24" s="7">
-        <v>78</v>
-      </c>
-      <c r="I24" s="7">
-        <v>56345</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>175</v>
@@ -4549,13 +4585,13 @@
         <v>122377</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,34 +4600,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7">
+        <v>13318</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="7">
         <v>29</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>20173</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H25" s="7">
-        <v>19</v>
-      </c>
-      <c r="I25" s="7">
-        <v>13318</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -4600,13 +4636,13 @@
         <v>33490</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,34 +4651,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8879</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26" s="7">
         <v>24</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>15631</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H26" s="7">
-        <v>13</v>
-      </c>
-      <c r="I26" s="7">
-        <v>8879</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>359</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -4651,13 +4687,13 @@
         <v>24509</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>237</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,25 +4702,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>442</v>
+      </c>
+      <c r="D27" s="7">
+        <v>310938</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>471</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>324222</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>310938</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4713,7 +4749,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4732,7 +4768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAA51D2-9BB4-4E37-B827-131B240583C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEA864D-033C-4A84-B38A-844761CE62FD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4749,7 +4785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4850,34 +4886,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8520</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="7">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>12438</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H4" s="7">
-        <v>12</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8520</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -4886,13 +4922,13 @@
         <v>20958</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,34 +4937,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14162</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="7">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>15957</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H5" s="7">
-        <v>20</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14162</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4937,13 +4973,13 @@
         <v>30119</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,34 +4988,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4506</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5428</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4506</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4988,13 +5024,13 @@
         <v>9934</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,34 +5039,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>549</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1426</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>549</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5039,13 +5075,13 @@
         <v>1976</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>394</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,34 +5090,34 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2868</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1389</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2868</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -5090,13 +5126,13 @@
         <v>4257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,25 +5141,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5158,34 +5194,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>128</v>
+      </c>
+      <c r="D10" s="7">
+        <v>87958</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H10" s="7">
         <v>93</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>67157</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H10" s="7">
-        <v>128</v>
-      </c>
-      <c r="I10" s="7">
-        <v>87958</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>221</v>
@@ -5194,13 +5230,13 @@
         <v>155115</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,34 +5245,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>130</v>
+      </c>
+      <c r="D11" s="7">
+        <v>93591</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H11" s="7">
         <v>127</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>94405</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H11" s="7">
-        <v>130</v>
-      </c>
-      <c r="I11" s="7">
-        <v>93591</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -5245,13 +5281,13 @@
         <v>187995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>420</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,34 +5296,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>39349</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="7">
         <v>74</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>54050</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H12" s="7">
-        <v>57</v>
-      </c>
-      <c r="I12" s="7">
-        <v>39349</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>131</v>
@@ -5296,13 +5332,13 @@
         <v>93398</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,34 +5347,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14590</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="7">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12959</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>14590</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5347,13 +5383,13 @@
         <v>27549</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,34 +5398,34 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8511</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>7149</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8511</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -5398,13 +5434,13 @@
         <v>15660</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,25 +5449,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>349</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="7">
         <v>322</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>235720</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="7">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5466,34 +5502,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26416</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H16" s="7">
         <v>36</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>25282</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H16" s="7">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26416</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -5502,13 +5538,13 @@
         <v>51698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,34 +5553,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>24428</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="7">
         <v>44</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>32098</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H17" s="7">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7">
-        <v>24428</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>39</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -5553,13 +5589,13 @@
         <v>56526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,34 +5604,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>23</v>
+      </c>
+      <c r="D18" s="7">
+        <v>15521</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>12039</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H18" s="7">
-        <v>23</v>
-      </c>
-      <c r="I18" s="7">
-        <v>15521</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>469</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -5604,13 +5640,13 @@
         <v>27560</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,34 +5655,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3230</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3811</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3230</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5655,13 +5691,13 @@
         <v>7041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,34 +5706,34 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1496</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>2272</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1496</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5706,13 +5742,13 @@
         <v>3767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,25 +5757,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5774,34 +5810,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>178</v>
+      </c>
+      <c r="D22" s="7">
+        <v>122894</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="H22" s="7">
         <v>146</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>104877</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="H22" s="7">
-        <v>178</v>
-      </c>
-      <c r="I22" s="7">
-        <v>122894</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>324</v>
@@ -5810,13 +5846,13 @@
         <v>227771</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,34 +5861,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>183</v>
+      </c>
+      <c r="D23" s="7">
+        <v>132181</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H23" s="7">
         <v>193</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>142460</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H23" s="7">
-        <v>183</v>
-      </c>
-      <c r="I23" s="7">
-        <v>132181</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="M23" s="7">
         <v>376</v>
@@ -5861,13 +5897,13 @@
         <v>274641</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,34 +5912,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>87</v>
+      </c>
+      <c r="D24" s="7">
+        <v>59376</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H24" s="7">
         <v>99</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>71517</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H24" s="7">
-        <v>87</v>
-      </c>
-      <c r="I24" s="7">
-        <v>59376</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="M24" s="7">
         <v>186</v>
@@ -5912,13 +5948,13 @@
         <v>130892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,34 +5963,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7">
+        <v>18369</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H25" s="7">
         <v>25</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>18196</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="H25" s="7">
-        <v>27</v>
-      </c>
-      <c r="I25" s="7">
-        <v>18369</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5963,13 +5999,13 @@
         <v>36565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,34 +6014,34 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7">
+        <v>12874</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="7">
         <v>15</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>10810</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H26" s="7">
-        <v>18</v>
-      </c>
-      <c r="I26" s="7">
-        <v>12874</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>525</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="M26" s="7">
         <v>33</v>
@@ -6014,13 +6050,13 @@
         <v>23685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,25 +6065,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>493</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>347860</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>493</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6076,7 +6112,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
